--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>4</v>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Bengals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
